--- a/database/sql_tao_bang_phan_quyen.20231211095617795.xlsx
+++ b/database/sql_tao_bang_phan_quyen.20231211095617795.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27915" windowHeight="12300" activeTab="2"/>
+    <workbookView windowWidth="27915" windowHeight="12300" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="6" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="184">
   <si>
     <t>id</t>
   </si>
@@ -584,7 +584,7 @@
     <numFmt numFmtId="179" formatCode="_-* #,##0\ &quot;₫&quot;_-;\-* #,##0\ &quot;₫&quot;_-;_-* &quot;-&quot;\ &quot;₫&quot;_-;_-@_-"/>
     <numFmt numFmtId="180" formatCode="m/d/yyyy\ h:mm"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -593,12 +593,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Times New Roman"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -1065,16 +1070,13 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1083,119 +1085,122 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1205,10 +1210,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1">
@@ -1541,24 +1561,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="3.85714285714286" style="3" customWidth="1"/>
+    <col min="1" max="1" width="3.85714285714286" style="9" customWidth="1"/>
     <col min="2" max="2" width="10.2857142857143" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" s="3" customFormat="1" spans="1:3">
-      <c r="A2" s="3" t="s">
+    <row r="2" s="9" customFormat="1" spans="1:3">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="3">
+      <c r="A3" s="9">
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -1569,7 +1589,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="3">
+      <c r="A4" s="9">
         <v>2</v>
       </c>
       <c r="B4" t="s">
@@ -1577,11 +1597,11 @@
       </c>
       <c r="C4" s="1">
         <f ca="1">NOW()</f>
-        <v>45274.4256597222</v>
+        <v>45279.354224537</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="3">
+      <c r="A5" s="9">
         <v>3</v>
       </c>
       <c r="B5" t="s">
@@ -1592,7 +1612,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="3">
+      <c r="A6" s="9">
         <v>4</v>
       </c>
       <c r="B6" t="s">
@@ -1603,7 +1623,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="3">
+      <c r="A7" s="9">
         <v>5</v>
       </c>
       <c r="B7" t="s">
@@ -1614,7 +1634,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="3">
+      <c r="A8" s="9">
         <v>6</v>
       </c>
       <c r="B8" t="s">
@@ -1625,7 +1645,7 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="3">
+      <c r="A9" s="9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
@@ -1636,7 +1656,7 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="3">
+      <c r="A10" s="9">
         <v>8</v>
       </c>
       <c r="B10" t="s">
@@ -1647,7 +1667,7 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="3">
+      <c r="A11" s="9">
         <v>9</v>
       </c>
       <c r="B11" t="s">
@@ -1658,7 +1678,7 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="3">
+      <c r="A12" s="9">
         <v>10</v>
       </c>
       <c r="B12" t="s">
@@ -1669,7 +1689,7 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="3">
+      <c r="A13" s="9">
         <v>11</v>
       </c>
       <c r="B13" t="s">
@@ -1680,7 +1700,7 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="3">
+      <c r="A14" s="9">
         <v>12</v>
       </c>
       <c r="B14" t="s">
@@ -1691,7 +1711,7 @@
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="3">
+      <c r="A15" s="9">
         <v>13</v>
       </c>
       <c r="B15" t="s">
@@ -1702,7 +1722,7 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="3">
+      <c r="A16" s="9">
         <v>14</v>
       </c>
       <c r="B16" t="s">
@@ -1713,7 +1733,7 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="3">
+      <c r="A17" s="9">
         <v>15</v>
       </c>
       <c r="B17" t="s">
@@ -1724,7 +1744,7 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="3">
+      <c r="A18" s="9">
         <v>16</v>
       </c>
       <c r="B18" t="s">
@@ -1735,7 +1755,7 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="3">
+      <c r="A19" s="9">
         <v>17</v>
       </c>
       <c r="B19" t="s">
@@ -1886,7 +1906,7 @@
   <sheetPr/>
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1929,7 +1949,7 @@
       <c r="H1" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="10" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2779,25 +2799,29 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:P58"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3:O58"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5:O5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88571428571429" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88571428571429" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="3.66666666666667" style="3" customWidth="1"/>
-    <col min="2" max="2" width="25.2190476190476" customWidth="1"/>
-    <col min="3" max="3" width="13.7809523809524" customWidth="1"/>
+    <col min="2" max="2" width="25.2190476190476" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.7809523809524" style="4" customWidth="1"/>
     <col min="4" max="4" width="14" style="3" customWidth="1"/>
     <col min="5" max="5" width="7.14285714285714" style="3" customWidth="1"/>
     <col min="6" max="6" width="9.28571428571429" style="3" customWidth="1"/>
     <col min="7" max="7" width="7.28571428571429" style="3" customWidth="1"/>
     <col min="8" max="8" width="5.42857142857143" style="3" customWidth="1"/>
     <col min="9" max="9" width="6.42857142857143" style="3" customWidth="1"/>
-    <col min="11" max="15" width="19" customWidth="1"/>
+    <col min="10" max="10" width="8.88571428571429" style="4"/>
+    <col min="11" max="15" width="19" style="4" customWidth="1"/>
+    <col min="16" max="16384" width="8.88571428571429" style="4"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="1" spans="4:16">
@@ -2839,31 +2863,31 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="5" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2871,45 +2895,45 @@
       <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="K3" t="str">
+      <c r="D3" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K3" s="7" t="str">
         <f>IF(D3&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;D$1&amp;", "&amp;$A3&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(1, 1, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="L3" t="str">
+      <c r="L3" s="7" t="str">
         <f>IF(E3&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;E$1&amp;", "&amp;$A3&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(2, 1, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="M3" t="str">
+      <c r="M3" s="7" t="str">
         <f>IF(F3&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;F$1&amp;", "&amp;$A3&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(3, 1, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="N3" t="str">
+      <c r="N3" s="7" t="str">
         <f>IF(G3&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;G$1&amp;", "&amp;$A3&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(4, 1, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="O3" t="str">
+      <c r="O3" s="7" t="str">
         <f>IF(H3&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;H$1&amp;", "&amp;$A3&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
-      <c r="P3" t="str">
+      <c r="P3" s="7" t="str">
         <f>IF(I3&lt;&gt;"","INSERT INTO "&amp;'roles-repice'!$I$3&amp;"roles_permissions VALUES("&amp;I$1&amp;", "&amp;$A3&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
@@ -2918,45 +2942,48 @@
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="K4" t="str">
+      <c r="D4" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" s="7" t="str">
         <f>IF(D4&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;D$1&amp;", "&amp;$A4&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(1, 2, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="L4" t="str">
+      <c r="L4" s="7" t="str">
         <f>IF(E4&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;E$1&amp;", "&amp;$A4&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(2, 2, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="M4" t="str">
+      <c r="M4" s="7" t="str">
         <f>IF(F4&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;F$1&amp;", "&amp;$A4&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(3, 2, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="N4" t="str">
+      <c r="N4" s="7" t="str">
         <f>IF(G4&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;G$1&amp;", "&amp;$A4&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(4, 2, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="O4" t="str">
+      <c r="O4" s="7" t="str">
         <f>IF(H4&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;H$1&amp;", "&amp;$A4&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
-        <v/>
-      </c>
-      <c r="P4" t="str">
+        <v>INSERT INTO ktgiang_roles_permissions VALUES(5, 2, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
+      </c>
+      <c r="P4" s="7" t="str">
         <f>IF(I4&lt;&gt;"","INSERT INTO "&amp;'roles-repice'!$I$3&amp;"roles_permissions VALUES("&amp;I$1&amp;", "&amp;$A4&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
@@ -2965,42 +2992,48 @@
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="K5" t="str">
+      <c r="D5" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K5" s="7" t="str">
         <f>IF(D5&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;D$1&amp;", "&amp;$A5&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(1, 3, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="L5" t="str">
+      <c r="L5" s="7" t="str">
         <f>IF(E5&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;E$1&amp;", "&amp;$A5&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(2, 3, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="M5" t="str">
+      <c r="M5" s="7" t="str">
         <f>IF(F5&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;F$1&amp;", "&amp;$A5&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(3, 3, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="N5" t="str">
+      <c r="N5" s="7" t="str">
         <f>IF(G5&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;G$1&amp;", "&amp;$A5&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
-        <v/>
-      </c>
-      <c r="O5" t="str">
+        <v>INSERT INTO ktgiang_roles_permissions VALUES(4, 3, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
+      </c>
+      <c r="O5" s="7" t="str">
         <f>IF(H5&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;H$1&amp;", "&amp;$A5&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
-        <v/>
-      </c>
-      <c r="P5" t="str">
+        <v>INSERT INTO ktgiang_roles_permissions VALUES(5, 3, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
+      </c>
+      <c r="P5" s="7" t="str">
         <f>IF(I5&lt;&gt;"","INSERT INTO "&amp;'roles-repice'!$I$3&amp;"roles_permissions VALUES("&amp;I$1&amp;", "&amp;$A5&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
@@ -3009,42 +3042,42 @@
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="K6" t="str">
+      <c r="D6" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K6" s="7" t="str">
         <f>IF(D6&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;D$1&amp;", "&amp;$A6&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(1, 4, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="L6" t="str">
+      <c r="L6" s="7" t="str">
         <f>IF(E6&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;E$1&amp;", "&amp;$A6&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(2, 4, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="M6" t="str">
+      <c r="M6" s="7" t="str">
         <f>IF(F6&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;F$1&amp;", "&amp;$A6&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(3, 4, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="N6" t="str">
+      <c r="N6" s="7" t="str">
         <f>IF(G6&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;G$1&amp;", "&amp;$A6&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
-      <c r="O6" t="str">
+      <c r="O6" s="7" t="str">
         <f>IF(H6&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;H$1&amp;", "&amp;$A6&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
-      <c r="P6" t="str">
+      <c r="P6" s="7" t="str">
         <f>IF(I6&lt;&gt;"","INSERT INTO "&amp;'roles-repice'!$I$3&amp;"roles_permissions VALUES("&amp;I$1&amp;", "&amp;$A6&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
@@ -3053,39 +3086,39 @@
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="K7" t="str">
+      <c r="D7" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K7" s="7" t="str">
         <f>IF(D7&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;D$1&amp;", "&amp;$A7&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(1, 5, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="L7" t="str">
+      <c r="L7" s="7" t="str">
         <f>IF(E7&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;E$1&amp;", "&amp;$A7&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(2, 5, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="M7" t="str">
+      <c r="M7" s="7" t="str">
         <f>IF(F7&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;F$1&amp;", "&amp;$A7&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
-      <c r="N7" t="str">
+      <c r="N7" s="7" t="str">
         <f>IF(G7&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;G$1&amp;", "&amp;$A7&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
-      <c r="O7" t="str">
+      <c r="O7" s="7" t="str">
         <f>IF(H7&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;H$1&amp;", "&amp;$A7&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
-      <c r="P7" t="str">
+      <c r="P7" s="7" t="str">
         <f>IF(I7&lt;&gt;"","INSERT INTO "&amp;'roles-repice'!$I$3&amp;"roles_permissions VALUES("&amp;I$1&amp;", "&amp;$A7&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
@@ -3094,39 +3127,39 @@
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="K8" t="str">
+      <c r="D8" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K8" s="7" t="str">
         <f>IF(D8&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;D$1&amp;", "&amp;$A8&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(1, 6, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="L8" t="str">
+      <c r="L8" s="7" t="str">
         <f>IF(E8&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;E$1&amp;", "&amp;$A8&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(2, 6, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="M8" t="str">
+      <c r="M8" s="7" t="str">
         <f>IF(F8&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;F$1&amp;", "&amp;$A8&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
-      <c r="N8" t="str">
+      <c r="N8" s="7" t="str">
         <f>IF(G8&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;G$1&amp;", "&amp;$A8&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
-      <c r="O8" t="str">
+      <c r="O8" s="7" t="str">
         <f>IF(H8&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;H$1&amp;", "&amp;$A8&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
-      <c r="P8" t="str">
+      <c r="P8" s="7" t="str">
         <f>IF(I8&lt;&gt;"","INSERT INTO "&amp;'roles-repice'!$I$3&amp;"roles_permissions VALUES("&amp;I$1&amp;", "&amp;$A8&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
@@ -3135,39 +3168,39 @@
       <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="K9" t="str">
+      <c r="D9" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K9" s="7" t="str">
         <f>IF(D9&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;D$1&amp;", "&amp;$A9&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(1, 7, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="L9" t="str">
+      <c r="L9" s="7" t="str">
         <f>IF(E9&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;E$1&amp;", "&amp;$A9&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(2, 7, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="M9" t="str">
+      <c r="M9" s="7" t="str">
         <f>IF(F9&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;F$1&amp;", "&amp;$A9&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
-      <c r="N9" t="str">
+      <c r="N9" s="7" t="str">
         <f>IF(G9&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;G$1&amp;", "&amp;$A9&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
-      <c r="O9" t="str">
+      <c r="O9" s="7" t="str">
         <f>IF(H9&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;H$1&amp;", "&amp;$A9&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
-      <c r="P9" t="str">
+      <c r="P9" s="7" t="str">
         <f>IF(I9&lt;&gt;"","INSERT INTO "&amp;'roles-repice'!$I$3&amp;"roles_permissions VALUES("&amp;I$1&amp;", "&amp;$A9&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
@@ -3176,48 +3209,48 @@
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="K10" t="str">
+      <c r="D10" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K10" s="7" t="str">
         <f>IF(D10&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;D$1&amp;", "&amp;$A10&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(1, 8, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="L10" t="str">
+      <c r="L10" s="7" t="str">
         <f>IF(E10&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;E$1&amp;", "&amp;$A10&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(2, 8, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="M10" t="str">
+      <c r="M10" s="7" t="str">
         <f>IF(F10&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;F$1&amp;", "&amp;$A10&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(3, 8, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="N10" t="str">
+      <c r="N10" s="7" t="str">
         <f>IF(G10&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;G$1&amp;", "&amp;$A10&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(4, 8, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="O10" t="str">
+      <c r="O10" s="7" t="str">
         <f>IF(H10&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;H$1&amp;", "&amp;$A10&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(5, 8, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="P10" t="str">
+      <c r="P10" s="7" t="str">
         <f>IF(I10&lt;&gt;"","INSERT INTO "&amp;'roles-repice'!$I$3&amp;"roles_permissions VALUES("&amp;I$1&amp;", "&amp;$A10&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
@@ -3226,48 +3259,48 @@
       <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="K11" t="str">
+      <c r="D11" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K11" s="7" t="str">
         <f>IF(D11&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;D$1&amp;", "&amp;$A11&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(1, 9, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="L11" t="str">
+      <c r="L11" s="7" t="str">
         <f>IF(E11&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;E$1&amp;", "&amp;$A11&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(2, 9, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="M11" t="str">
+      <c r="M11" s="7" t="str">
         <f>IF(F11&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;F$1&amp;", "&amp;$A11&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(3, 9, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="N11" t="str">
+      <c r="N11" s="7" t="str">
         <f>IF(G11&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;G$1&amp;", "&amp;$A11&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(4, 9, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="O11" t="str">
+      <c r="O11" s="7" t="str">
         <f>IF(H11&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;H$1&amp;", "&amp;$A11&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(5, 9, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="P11" t="str">
+      <c r="P11" s="7" t="str">
         <f>IF(I11&lt;&gt;"","INSERT INTO "&amp;'roles-repice'!$I$3&amp;"roles_permissions VALUES("&amp;I$1&amp;", "&amp;$A11&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
@@ -3276,42 +3309,42 @@
       <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="K12" t="str">
+      <c r="D12" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K12" s="7" t="str">
         <f>IF(D12&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;D$1&amp;", "&amp;$A12&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(1, 10, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="L12" t="str">
+      <c r="L12" s="7" t="str">
         <f>IF(E12&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;E$1&amp;", "&amp;$A12&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(2, 10, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="M12" t="str">
+      <c r="M12" s="7" t="str">
         <f>IF(F12&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;F$1&amp;", "&amp;$A12&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(3, 10, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="N12" t="str">
+      <c r="N12" s="7" t="str">
         <f>IF(G12&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;G$1&amp;", "&amp;$A12&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
-      <c r="O12" t="str">
+      <c r="O12" s="7" t="str">
         <f>IF(H12&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;H$1&amp;", "&amp;$A12&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
-      <c r="P12" t="str">
+      <c r="P12" s="7" t="str">
         <f>IF(I12&lt;&gt;"","INSERT INTO "&amp;'roles-repice'!$I$3&amp;"roles_permissions VALUES("&amp;I$1&amp;", "&amp;$A12&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
@@ -3320,48 +3353,48 @@
       <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="K13" t="str">
+      <c r="D13" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K13" s="7" t="str">
         <f>IF(D13&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;D$1&amp;", "&amp;$A13&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(1, 11, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="L13" t="str">
+      <c r="L13" s="7" t="str">
         <f>IF(E13&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;E$1&amp;", "&amp;$A13&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(2, 11, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="M13" t="str">
+      <c r="M13" s="7" t="str">
         <f>IF(F13&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;F$1&amp;", "&amp;$A13&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(3, 11, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="N13" t="str">
+      <c r="N13" s="7" t="str">
         <f>IF(G13&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;G$1&amp;", "&amp;$A13&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(4, 11, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="O13" t="str">
+      <c r="O13" s="7" t="str">
         <f>IF(H13&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;H$1&amp;", "&amp;$A13&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(5, 11, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="P13" t="str">
+      <c r="P13" s="7" t="str">
         <f>IF(I13&lt;&gt;"","INSERT INTO "&amp;'roles-repice'!$I$3&amp;"roles_permissions VALUES("&amp;I$1&amp;", "&amp;$A13&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
@@ -3370,39 +3403,39 @@
       <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="K14" t="str">
+      <c r="D14" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K14" s="7" t="str">
         <f>IF(D14&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;D$1&amp;", "&amp;$A14&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(1, 12, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="L14" t="str">
+      <c r="L14" s="7" t="str">
         <f>IF(E14&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;E$1&amp;", "&amp;$A14&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(2, 12, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="M14" t="str">
+      <c r="M14" s="7" t="str">
         <f>IF(F14&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;F$1&amp;", "&amp;$A14&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
-      <c r="N14" t="str">
+      <c r="N14" s="7" t="str">
         <f>IF(G14&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;G$1&amp;", "&amp;$A14&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
-      <c r="O14" t="str">
+      <c r="O14" s="7" t="str">
         <f>IF(H14&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;H$1&amp;", "&amp;$A14&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
-      <c r="P14" t="str">
+      <c r="P14" s="7" t="str">
         <f>IF(I14&lt;&gt;"","INSERT INTO "&amp;'roles-repice'!$I$3&amp;"roles_permissions VALUES("&amp;I$1&amp;", "&amp;$A14&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
@@ -3411,39 +3444,39 @@
       <c r="A15" s="3">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="K15" t="str">
+      <c r="D15" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K15" s="7" t="str">
         <f>IF(D15&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;D$1&amp;", "&amp;$A15&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(1, 13, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="L15" t="str">
+      <c r="L15" s="7" t="str">
         <f>IF(E15&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;E$1&amp;", "&amp;$A15&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(2, 13, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="M15" t="str">
+      <c r="M15" s="7" t="str">
         <f>IF(F15&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;F$1&amp;", "&amp;$A15&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
-      <c r="N15" t="str">
+      <c r="N15" s="7" t="str">
         <f>IF(G15&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;G$1&amp;", "&amp;$A15&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
-      <c r="O15" t="str">
+      <c r="O15" s="7" t="str">
         <f>IF(H15&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;H$1&amp;", "&amp;$A15&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
-      <c r="P15" t="str">
+      <c r="P15" s="7" t="str">
         <f>IF(I15&lt;&gt;"","INSERT INTO "&amp;'roles-repice'!$I$3&amp;"roles_permissions VALUES("&amp;I$1&amp;", "&amp;$A15&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
@@ -3452,39 +3485,39 @@
       <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="K16" t="str">
+      <c r="D16" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K16" s="7" t="str">
         <f>IF(D16&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;D$1&amp;", "&amp;$A16&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(1, 14, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="L16" t="str">
+      <c r="L16" s="7" t="str">
         <f>IF(E16&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;E$1&amp;", "&amp;$A16&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(2, 14, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="M16" t="str">
+      <c r="M16" s="7" t="str">
         <f>IF(F16&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;F$1&amp;", "&amp;$A16&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
-      <c r="N16" t="str">
+      <c r="N16" s="7" t="str">
         <f>IF(G16&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;G$1&amp;", "&amp;$A16&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
-      <c r="O16" t="str">
+      <c r="O16" s="7" t="str">
         <f>IF(H16&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;H$1&amp;", "&amp;$A16&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
-      <c r="P16" t="str">
+      <c r="P16" s="7" t="str">
         <f>IF(I16&lt;&gt;"","INSERT INTO "&amp;'roles-repice'!$I$3&amp;"roles_permissions VALUES("&amp;I$1&amp;", "&amp;$A16&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
@@ -3493,48 +3526,48 @@
       <c r="A17" s="3">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="K17" t="str">
+      <c r="D17" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K17" s="7" t="str">
         <f>IF(D17&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;D$1&amp;", "&amp;$A17&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(1, 15, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="L17" t="str">
+      <c r="L17" s="7" t="str">
         <f>IF(E17&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;E$1&amp;", "&amp;$A17&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(2, 15, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="M17" t="str">
+      <c r="M17" s="7" t="str">
         <f>IF(F17&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;F$1&amp;", "&amp;$A17&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(3, 15, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="N17" t="str">
+      <c r="N17" s="7" t="str">
         <f>IF(G17&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;G$1&amp;", "&amp;$A17&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(4, 15, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="O17" t="str">
+      <c r="O17" s="7" t="str">
         <f>IF(H17&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;H$1&amp;", "&amp;$A17&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(5, 15, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="P17" t="str">
+      <c r="P17" s="7" t="str">
         <f>IF(I17&lt;&gt;"","INSERT INTO "&amp;'roles-repice'!$I$3&amp;"roles_permissions VALUES("&amp;I$1&amp;", "&amp;$A17&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
@@ -3543,48 +3576,48 @@
       <c r="A18" s="3">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="K18" t="str">
+      <c r="D18" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K18" s="7" t="str">
         <f>IF(D18&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;D$1&amp;", "&amp;$A18&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(1, 16, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="L18" t="str">
+      <c r="L18" s="7" t="str">
         <f>IF(E18&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;E$1&amp;", "&amp;$A18&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(2, 16, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="M18" t="str">
+      <c r="M18" s="7" t="str">
         <f>IF(F18&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;F$1&amp;", "&amp;$A18&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(3, 16, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="N18" t="str">
+      <c r="N18" s="7" t="str">
         <f>IF(G18&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;G$1&amp;", "&amp;$A18&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(4, 16, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="O18" t="str">
+      <c r="O18" s="7" t="str">
         <f>IF(H18&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;H$1&amp;", "&amp;$A18&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(5, 16, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="P18" t="str">
+      <c r="P18" s="7" t="str">
         <f>IF(I18&lt;&gt;"","INSERT INTO "&amp;'roles-repice'!$I$3&amp;"roles_permissions VALUES("&amp;I$1&amp;", "&amp;$A18&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
@@ -3593,45 +3626,45 @@
       <c r="A19" s="3">
         <v>17</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="K19" t="str">
+      <c r="D19" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K19" s="7" t="str">
         <f>IF(D19&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;D$1&amp;", "&amp;$A19&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(1, 17, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="L19" t="str">
+      <c r="L19" s="7" t="str">
         <f>IF(E19&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;E$1&amp;", "&amp;$A19&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(2, 17, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="M19" t="str">
+      <c r="M19" s="7" t="str">
         <f>IF(F19&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;F$1&amp;", "&amp;$A19&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(3, 17, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="N19" t="str">
+      <c r="N19" s="7" t="str">
         <f>IF(G19&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;G$1&amp;", "&amp;$A19&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(4, 17, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="O19" t="str">
+      <c r="O19" s="7" t="str">
         <f>IF(H19&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;H$1&amp;", "&amp;$A19&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
-      <c r="P19" t="str">
+      <c r="P19" s="7" t="str">
         <f>IF(I19&lt;&gt;"","INSERT INTO "&amp;'roles-repice'!$I$3&amp;"roles_permissions VALUES("&amp;I$1&amp;", "&amp;$A19&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
@@ -3640,42 +3673,42 @@
       <c r="A20" s="3">
         <v>18</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="K20" t="str">
+      <c r="D20" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K20" s="7" t="str">
         <f>IF(D20&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;D$1&amp;", "&amp;$A20&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(1, 18, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="L20" t="str">
+      <c r="L20" s="7" t="str">
         <f>IF(E20&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;E$1&amp;", "&amp;$A20&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(2, 18, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="M20" t="str">
+      <c r="M20" s="7" t="str">
         <f>IF(F20&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;F$1&amp;", "&amp;$A20&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
-      <c r="N20" t="str">
+      <c r="N20" s="7" t="str">
         <f>IF(G20&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;G$1&amp;", "&amp;$A20&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
-      <c r="O20" t="str">
+      <c r="O20" s="7" t="str">
         <f>IF(H20&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;H$1&amp;", "&amp;$A20&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(5, 18, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="P20" t="str">
+      <c r="P20" s="7" t="str">
         <f>IF(I20&lt;&gt;"","INSERT INTO "&amp;'roles-repice'!$I$3&amp;"roles_permissions VALUES("&amp;I$1&amp;", "&amp;$A20&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
@@ -3684,39 +3717,39 @@
       <c r="A21" s="3">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="K21" t="str">
+      <c r="D21" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K21" s="7" t="str">
         <f>IF(D21&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;D$1&amp;", "&amp;$A21&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(1, 19, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="L21" t="str">
+      <c r="L21" s="7" t="str">
         <f>IF(E21&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;E$1&amp;", "&amp;$A21&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(2, 19, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="M21" t="str">
+      <c r="M21" s="7" t="str">
         <f>IF(F21&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;F$1&amp;", "&amp;$A21&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
-      <c r="N21" t="str">
+      <c r="N21" s="7" t="str">
         <f>IF(G21&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;G$1&amp;", "&amp;$A21&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
-      <c r="O21" t="str">
+      <c r="O21" s="7" t="str">
         <f>IF(H21&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;H$1&amp;", "&amp;$A21&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
-      <c r="P21" t="str">
+      <c r="P21" s="7" t="str">
         <f>IF(I21&lt;&gt;"","INSERT INTO "&amp;'roles-repice'!$I$3&amp;"roles_permissions VALUES("&amp;I$1&amp;", "&amp;$A21&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
@@ -3725,39 +3758,39 @@
       <c r="A22" s="3">
         <v>20</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="K22" t="str">
+      <c r="D22" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K22" s="7" t="str">
         <f>IF(D22&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;D$1&amp;", "&amp;$A22&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(1, 20, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="L22" t="str">
+      <c r="L22" s="7" t="str">
         <f>IF(E22&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;E$1&amp;", "&amp;$A22&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(2, 20, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="M22" t="str">
+      <c r="M22" s="7" t="str">
         <f>IF(F22&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;F$1&amp;", "&amp;$A22&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
-      <c r="N22" t="str">
+      <c r="N22" s="7" t="str">
         <f>IF(G22&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;G$1&amp;", "&amp;$A22&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
-      <c r="O22" t="str">
+      <c r="O22" s="7" t="str">
         <f>IF(H22&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;H$1&amp;", "&amp;$A22&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
-      <c r="P22" t="str">
+      <c r="P22" s="7" t="str">
         <f>IF(I22&lt;&gt;"","INSERT INTO "&amp;'roles-repice'!$I$3&amp;"roles_permissions VALUES("&amp;I$1&amp;", "&amp;$A22&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
@@ -3766,39 +3799,39 @@
       <c r="A23" s="3">
         <v>21</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="K23" t="str">
+      <c r="D23" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K23" s="7" t="str">
         <f>IF(D23&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;D$1&amp;", "&amp;$A23&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(1, 21, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="L23" t="str">
+      <c r="L23" s="7" t="str">
         <f>IF(E23&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;E$1&amp;", "&amp;$A23&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(2, 21, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="M23" t="str">
+      <c r="M23" s="7" t="str">
         <f>IF(F23&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;F$1&amp;", "&amp;$A23&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
-      <c r="N23" t="str">
+      <c r="N23" s="7" t="str">
         <f>IF(G23&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;G$1&amp;", "&amp;$A23&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
-      <c r="O23" t="str">
+      <c r="O23" s="7" t="str">
         <f>IF(H23&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;H$1&amp;", "&amp;$A23&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
-      <c r="P23" t="str">
+      <c r="P23" s="7" t="str">
         <f>IF(I23&lt;&gt;"","INSERT INTO "&amp;'roles-repice'!$I$3&amp;"roles_permissions VALUES("&amp;I$1&amp;", "&amp;$A23&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
@@ -3807,48 +3840,48 @@
       <c r="A24" s="3">
         <v>22</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="K24" t="str">
+      <c r="D24" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K24" s="7" t="str">
         <f>IF(D24&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;D$1&amp;", "&amp;$A24&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(1, 22, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="L24" t="str">
+      <c r="L24" s="7" t="str">
         <f>IF(E24&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;E$1&amp;", "&amp;$A24&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(2, 22, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="M24" t="str">
+      <c r="M24" s="7" t="str">
         <f>IF(F24&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;F$1&amp;", "&amp;$A24&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(3, 22, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="N24" t="str">
+      <c r="N24" s="7" t="str">
         <f>IF(G24&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;G$1&amp;", "&amp;$A24&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(4, 22, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="O24" t="str">
+      <c r="O24" s="7" t="str">
         <f>IF(H24&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;H$1&amp;", "&amp;$A24&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(5, 22, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="P24" t="str">
+      <c r="P24" s="7" t="str">
         <f>IF(I24&lt;&gt;"","INSERT INTO "&amp;'roles-repice'!$I$3&amp;"roles_permissions VALUES("&amp;I$1&amp;", "&amp;$A24&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
@@ -3857,45 +3890,45 @@
       <c r="A25" s="3">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="K25" t="str">
+      <c r="D25" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K25" s="7" t="str">
         <f>IF(D25&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;D$1&amp;", "&amp;$A25&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(1, 23, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="L25" t="str">
+      <c r="L25" s="7" t="str">
         <f>IF(E25&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;E$1&amp;", "&amp;$A25&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(2, 23, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="M25" t="str">
+      <c r="M25" s="7" t="str">
         <f>IF(F25&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;F$1&amp;", "&amp;$A25&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(3, 23, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="N25" t="str">
+      <c r="N25" s="7" t="str">
         <f>IF(G25&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;G$1&amp;", "&amp;$A25&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(4, 23, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="O25" t="str">
+      <c r="O25" s="7" t="str">
         <f>IF(H25&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;H$1&amp;", "&amp;$A25&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
-      <c r="P25" t="str">
+      <c r="P25" s="7" t="str">
         <f>IF(I25&lt;&gt;"","INSERT INTO "&amp;'roles-repice'!$I$3&amp;"roles_permissions VALUES("&amp;I$1&amp;", "&amp;$A25&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
@@ -3904,42 +3937,42 @@
       <c r="A26" s="3">
         <v>24</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="K26" t="str">
+      <c r="D26" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K26" s="7" t="str">
         <f>IF(D26&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;D$1&amp;", "&amp;$A26&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(1, 24, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="L26" t="str">
+      <c r="L26" s="7" t="str">
         <f>IF(E26&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;E$1&amp;", "&amp;$A26&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(2, 24, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="M26" t="str">
+      <c r="M26" s="7" t="str">
         <f>IF(F26&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;F$1&amp;", "&amp;$A26&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(3, 24, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="N26" t="str">
+      <c r="N26" s="7" t="str">
         <f>IF(G26&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;G$1&amp;", "&amp;$A26&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
-      <c r="O26" t="str">
+      <c r="O26" s="7" t="str">
         <f>IF(H26&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;H$1&amp;", "&amp;$A26&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
-      <c r="P26" t="str">
+      <c r="P26" s="7" t="str">
         <f>IF(I26&lt;&gt;"","INSERT INTO "&amp;'roles-repice'!$I$3&amp;"roles_permissions VALUES("&amp;I$1&amp;", "&amp;$A26&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
@@ -3948,36 +3981,36 @@
       <c r="A27" s="3">
         <v>25</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="K27" t="str">
+      <c r="D27" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K27" s="7" t="str">
         <f>IF(D27&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;D$1&amp;", "&amp;$A27&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(1, 25, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="L27" t="str">
+      <c r="L27" s="7" t="str">
         <f>IF(E27&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;E$1&amp;", "&amp;$A27&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
-      <c r="M27" t="str">
+      <c r="M27" s="7" t="str">
         <f>IF(F27&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;F$1&amp;", "&amp;$A27&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
-      <c r="N27" t="str">
+      <c r="N27" s="7" t="str">
         <f>IF(G27&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;G$1&amp;", "&amp;$A27&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
-      <c r="O27" t="str">
+      <c r="O27" s="7" t="str">
         <f>IF(H27&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;H$1&amp;", "&amp;$A27&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
-      <c r="P27" t="str">
+      <c r="P27" s="7" t="str">
         <f>IF(I27&lt;&gt;"","INSERT INTO "&amp;'roles-repice'!$I$3&amp;"roles_permissions VALUES("&amp;I$1&amp;", "&amp;$A27&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
@@ -3986,36 +4019,36 @@
       <c r="A28" s="3">
         <v>26</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="D28" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="K28" t="str">
+      <c r="D28" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K28" s="7" t="str">
         <f>IF(D28&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;D$1&amp;", "&amp;$A28&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(1, 26, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="L28" t="str">
+      <c r="L28" s="7" t="str">
         <f>IF(E28&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;E$1&amp;", "&amp;$A28&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
-      <c r="M28" t="str">
+      <c r="M28" s="7" t="str">
         <f>IF(F28&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;F$1&amp;", "&amp;$A28&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
-      <c r="N28" t="str">
+      <c r="N28" s="7" t="str">
         <f>IF(G28&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;G$1&amp;", "&amp;$A28&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
-      <c r="O28" t="str">
+      <c r="O28" s="7" t="str">
         <f>IF(H28&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;H$1&amp;", "&amp;$A28&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
-      <c r="P28" t="str">
+      <c r="P28" s="7" t="str">
         <f>IF(I28&lt;&gt;"","INSERT INTO "&amp;'roles-repice'!$I$3&amp;"roles_permissions VALUES("&amp;I$1&amp;", "&amp;$A28&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
@@ -4024,39 +4057,39 @@
       <c r="A29" s="3">
         <v>27</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="K29" t="str">
+      <c r="D29" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K29" s="7" t="str">
         <f>IF(D29&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;D$1&amp;", "&amp;$A29&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(1, 27, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="L29" t="str">
+      <c r="L29" s="7" t="str">
         <f>IF(E29&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;E$1&amp;", "&amp;$A29&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(2, 27, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="M29" t="str">
+      <c r="M29" s="7" t="str">
         <f>IF(F29&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;F$1&amp;", "&amp;$A29&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
-      <c r="N29" t="str">
+      <c r="N29" s="7" t="str">
         <f>IF(G29&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;G$1&amp;", "&amp;$A29&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
-      <c r="O29" t="str">
+      <c r="O29" s="7" t="str">
         <f>IF(H29&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;H$1&amp;", "&amp;$A29&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
-      <c r="P29" t="str">
+      <c r="P29" s="7" t="str">
         <f>IF(I29&lt;&gt;"","INSERT INTO "&amp;'roles-repice'!$I$3&amp;"roles_permissions VALUES("&amp;I$1&amp;", "&amp;$A29&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
@@ -4065,39 +4098,39 @@
       <c r="A30" s="3">
         <v>28</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="D30" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="K30" t="str">
+      <c r="D30" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K30" s="7" t="str">
         <f>IF(D30&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;D$1&amp;", "&amp;$A30&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(1, 28, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="L30" t="str">
+      <c r="L30" s="7" t="str">
         <f>IF(E30&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;E$1&amp;", "&amp;$A30&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(2, 28, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="M30" t="str">
+      <c r="M30" s="7" t="str">
         <f>IF(F30&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;F$1&amp;", "&amp;$A30&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
-      <c r="N30" t="str">
+      <c r="N30" s="7" t="str">
         <f>IF(G30&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;G$1&amp;", "&amp;$A30&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
-      <c r="O30" t="str">
+      <c r="O30" s="7" t="str">
         <f>IF(H30&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;H$1&amp;", "&amp;$A30&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
-      <c r="P30" t="str">
+      <c r="P30" s="7" t="str">
         <f>IF(I30&lt;&gt;"","INSERT INTO "&amp;'roles-repice'!$I$3&amp;"roles_permissions VALUES("&amp;I$1&amp;", "&amp;$A30&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
@@ -4106,48 +4139,48 @@
       <c r="A31" s="3">
         <v>29</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="D31" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="K31" t="str">
+      <c r="D31" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K31" s="7" t="str">
         <f>IF(D31&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;D$1&amp;", "&amp;$A31&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(1, 29, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="L31" t="str">
+      <c r="L31" s="7" t="str">
         <f>IF(E31&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;E$1&amp;", "&amp;$A31&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(2, 29, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="M31" t="str">
+      <c r="M31" s="7" t="str">
         <f>IF(F31&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;F$1&amp;", "&amp;$A31&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(3, 29, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="N31" t="str">
+      <c r="N31" s="7" t="str">
         <f>IF(G31&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;G$1&amp;", "&amp;$A31&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(4, 29, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="O31" t="str">
+      <c r="O31" s="7" t="str">
         <f>IF(H31&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;H$1&amp;", "&amp;$A31&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(5, 29, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="P31" t="str">
+      <c r="P31" s="7" t="str">
         <f>IF(I31&lt;&gt;"","INSERT INTO "&amp;'roles-repice'!$I$3&amp;"roles_permissions VALUES("&amp;I$1&amp;", "&amp;$A31&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
@@ -4156,45 +4189,45 @@
       <c r="A32" s="3">
         <v>30</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="K32" t="str">
+      <c r="D32" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K32" s="7" t="str">
         <f>IF(D32&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;D$1&amp;", "&amp;$A32&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(1, 30, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="L32" t="str">
+      <c r="L32" s="7" t="str">
         <f>IF(E32&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;E$1&amp;", "&amp;$A32&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(2, 30, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="M32" t="str">
+      <c r="M32" s="7" t="str">
         <f>IF(F32&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;F$1&amp;", "&amp;$A32&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(3, 30, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="N32" t="str">
+      <c r="N32" s="7" t="str">
         <f>IF(G32&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;G$1&amp;", "&amp;$A32&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(4, 30, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="O32" t="str">
+      <c r="O32" s="7" t="str">
         <f>IF(H32&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;H$1&amp;", "&amp;$A32&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
-      <c r="P32" t="str">
+      <c r="P32" s="7" t="str">
         <f>IF(I32&lt;&gt;"","INSERT INTO "&amp;'roles-repice'!$I$3&amp;"roles_permissions VALUES("&amp;I$1&amp;", "&amp;$A32&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
@@ -4203,39 +4236,39 @@
       <c r="A33" s="3">
         <v>31</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="K33" t="str">
+      <c r="D33" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K33" s="7" t="str">
         <f>IF(D33&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;D$1&amp;", "&amp;$A33&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(1, 31, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="L33" t="str">
+      <c r="L33" s="7" t="str">
         <f>IF(E33&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;E$1&amp;", "&amp;$A33&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(2, 31, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="M33" t="str">
+      <c r="M33" s="7" t="str">
         <f>IF(F33&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;F$1&amp;", "&amp;$A33&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
-      <c r="N33" t="str">
+      <c r="N33" s="7" t="str">
         <f>IF(G33&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;G$1&amp;", "&amp;$A33&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
-      <c r="O33" t="str">
+      <c r="O33" s="7" t="str">
         <f>IF(H33&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;H$1&amp;", "&amp;$A33&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
-      <c r="P33" t="str">
+      <c r="P33" s="7" t="str">
         <f>IF(I33&lt;&gt;"","INSERT INTO "&amp;'roles-repice'!$I$3&amp;"roles_permissions VALUES("&amp;I$1&amp;", "&amp;$A33&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
@@ -4244,36 +4277,36 @@
       <c r="A34" s="3">
         <v>32</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="D34" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="K34" t="str">
+      <c r="D34" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K34" s="7" t="str">
         <f>IF(D34&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;D$1&amp;", "&amp;$A34&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(1, 32, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="L34" t="str">
+      <c r="L34" s="7" t="str">
         <f>IF(E34&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;E$1&amp;", "&amp;$A34&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
-      <c r="M34" t="str">
+      <c r="M34" s="7" t="str">
         <f>IF(F34&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;F$1&amp;", "&amp;$A34&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
-      <c r="N34" t="str">
+      <c r="N34" s="7" t="str">
         <f>IF(G34&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;G$1&amp;", "&amp;$A34&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
-      <c r="O34" t="str">
+      <c r="O34" s="7" t="str">
         <f>IF(H34&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;H$1&amp;", "&amp;$A34&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
-      <c r="P34" t="str">
+      <c r="P34" s="7" t="str">
         <f>IF(I34&lt;&gt;"","INSERT INTO "&amp;'roles-repice'!$I$3&amp;"roles_permissions VALUES("&amp;I$1&amp;", "&amp;$A34&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
@@ -4282,36 +4315,36 @@
       <c r="A35" s="3">
         <v>33</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="K35" t="str">
+      <c r="D35" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K35" s="7" t="str">
         <f>IF(D35&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;D$1&amp;", "&amp;$A35&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(1, 33, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="L35" t="str">
+      <c r="L35" s="7" t="str">
         <f>IF(E35&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;E$1&amp;", "&amp;$A35&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
-      <c r="M35" t="str">
+      <c r="M35" s="7" t="str">
         <f>IF(F35&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;F$1&amp;", "&amp;$A35&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
-      <c r="N35" t="str">
+      <c r="N35" s="7" t="str">
         <f>IF(G35&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;G$1&amp;", "&amp;$A35&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
-      <c r="O35" t="str">
+      <c r="O35" s="7" t="str">
         <f>IF(H35&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;H$1&amp;", "&amp;$A35&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
-      <c r="P35" t="str">
+      <c r="P35" s="7" t="str">
         <f>IF(I35&lt;&gt;"","INSERT INTO "&amp;'roles-repice'!$I$3&amp;"roles_permissions VALUES("&amp;I$1&amp;", "&amp;$A35&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
@@ -4320,39 +4353,39 @@
       <c r="A36" s="3">
         <v>34</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="D36" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="K36" t="str">
+      <c r="D36" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K36" s="7" t="str">
         <f>IF(D36&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;D$1&amp;", "&amp;$A36&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(1, 34, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="L36" t="str">
+      <c r="L36" s="7" t="str">
         <f>IF(E36&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;E$1&amp;", "&amp;$A36&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(2, 34, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="M36" t="str">
+      <c r="M36" s="7" t="str">
         <f>IF(F36&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;F$1&amp;", "&amp;$A36&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
-      <c r="N36" t="str">
+      <c r="N36" s="7" t="str">
         <f>IF(G36&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;G$1&amp;", "&amp;$A36&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
-      <c r="O36" t="str">
+      <c r="O36" s="7" t="str">
         <f>IF(H36&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;H$1&amp;", "&amp;$A36&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
-      <c r="P36" t="str">
+      <c r="P36" s="7" t="str">
         <f>IF(I36&lt;&gt;"","INSERT INTO "&amp;'roles-repice'!$I$3&amp;"roles_permissions VALUES("&amp;I$1&amp;", "&amp;$A36&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
@@ -4361,39 +4394,39 @@
       <c r="A37" s="3">
         <v>35</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="D37" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="K37" t="str">
+      <c r="D37" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K37" s="7" t="str">
         <f>IF(D37&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;D$1&amp;", "&amp;$A37&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(1, 35, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="L37" t="str">
+      <c r="L37" s="7" t="str">
         <f>IF(E37&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;E$1&amp;", "&amp;$A37&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(2, 35, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="M37" t="str">
+      <c r="M37" s="7" t="str">
         <f>IF(F37&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;F$1&amp;", "&amp;$A37&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
-      <c r="N37" t="str">
+      <c r="N37" s="7" t="str">
         <f>IF(G37&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;G$1&amp;", "&amp;$A37&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
-      <c r="O37" t="str">
+      <c r="O37" s="7" t="str">
         <f>IF(H37&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;H$1&amp;", "&amp;$A37&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
-      <c r="P37" t="str">
+      <c r="P37" s="7" t="str">
         <f>IF(I37&lt;&gt;"","INSERT INTO "&amp;'roles-repice'!$I$3&amp;"roles_permissions VALUES("&amp;I$1&amp;", "&amp;$A37&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
@@ -4402,48 +4435,48 @@
       <c r="A38" s="3">
         <v>36</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="D38" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="K38" t="str">
+      <c r="D38" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K38" s="7" t="str">
         <f>IF(D38&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;D$1&amp;", "&amp;$A38&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(1, 36, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="L38" t="str">
+      <c r="L38" s="7" t="str">
         <f>IF(E38&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;E$1&amp;", "&amp;$A38&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(2, 36, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="M38" t="str">
+      <c r="M38" s="7" t="str">
         <f>IF(F38&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;F$1&amp;", "&amp;$A38&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(3, 36, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="N38" t="str">
+      <c r="N38" s="7" t="str">
         <f>IF(G38&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;G$1&amp;", "&amp;$A38&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(4, 36, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="O38" t="str">
+      <c r="O38" s="7" t="str">
         <f>IF(H38&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;H$1&amp;", "&amp;$A38&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(5, 36, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="P38" t="str">
+      <c r="P38" s="7" t="str">
         <f>IF(I38&lt;&gt;"","INSERT INTO "&amp;'roles-repice'!$I$3&amp;"roles_permissions VALUES("&amp;I$1&amp;", "&amp;$A38&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
@@ -4452,45 +4485,45 @@
       <c r="A39" s="3">
         <v>37</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="D39" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="K39" t="str">
+      <c r="D39" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K39" s="7" t="str">
         <f>IF(D39&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;D$1&amp;", "&amp;$A39&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(1, 37, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="L39" t="str">
+      <c r="L39" s="7" t="str">
         <f>IF(E39&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;E$1&amp;", "&amp;$A39&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(2, 37, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="M39" t="str">
+      <c r="M39" s="7" t="str">
         <f>IF(F39&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;F$1&amp;", "&amp;$A39&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(3, 37, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="N39" t="str">
+      <c r="N39" s="7" t="str">
         <f>IF(G39&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;G$1&amp;", "&amp;$A39&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(4, 37, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="O39" t="str">
+      <c r="O39" s="7" t="str">
         <f>IF(H39&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;H$1&amp;", "&amp;$A39&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
-      <c r="P39" t="str">
+      <c r="P39" s="7" t="str">
         <f>IF(I39&lt;&gt;"","INSERT INTO "&amp;'roles-repice'!$I$3&amp;"roles_permissions VALUES("&amp;I$1&amp;", "&amp;$A39&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
@@ -4499,39 +4532,39 @@
       <c r="A40" s="3">
         <v>38</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="D40" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="K40" t="str">
+      <c r="D40" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K40" s="7" t="str">
         <f>IF(D40&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;D$1&amp;", "&amp;$A40&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(1, 38, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="L40" t="str">
+      <c r="L40" s="7" t="str">
         <f>IF(E40&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;E$1&amp;", "&amp;$A40&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(2, 38, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="M40" t="str">
+      <c r="M40" s="7" t="str">
         <f>IF(F40&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;F$1&amp;", "&amp;$A40&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
-      <c r="N40" t="str">
+      <c r="N40" s="7" t="str">
         <f>IF(G40&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;G$1&amp;", "&amp;$A40&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
-      <c r="O40" t="str">
+      <c r="O40" s="7" t="str">
         <f>IF(H40&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;H$1&amp;", "&amp;$A40&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
-      <c r="P40" t="str">
+      <c r="P40" s="7" t="str">
         <f>IF(I40&lt;&gt;"","INSERT INTO "&amp;'roles-repice'!$I$3&amp;"roles_permissions VALUES("&amp;I$1&amp;", "&amp;$A40&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
@@ -4540,36 +4573,36 @@
       <c r="A41" s="3">
         <v>39</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="K41" t="str">
+      <c r="D41" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K41" s="7" t="str">
         <f>IF(D41&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;D$1&amp;", "&amp;$A41&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(1, 39, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="L41" t="str">
+      <c r="L41" s="7" t="str">
         <f>IF(E41&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;E$1&amp;", "&amp;$A41&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
-      <c r="M41" t="str">
+      <c r="M41" s="7" t="str">
         <f>IF(F41&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;F$1&amp;", "&amp;$A41&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
-      <c r="N41" t="str">
+      <c r="N41" s="7" t="str">
         <f>IF(G41&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;G$1&amp;", "&amp;$A41&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
-      <c r="O41" t="str">
+      <c r="O41" s="7" t="str">
         <f>IF(H41&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;H$1&amp;", "&amp;$A41&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
-      <c r="P41" t="str">
+      <c r="P41" s="7" t="str">
         <f>IF(I41&lt;&gt;"","INSERT INTO "&amp;'roles-repice'!$I$3&amp;"roles_permissions VALUES("&amp;I$1&amp;", "&amp;$A41&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
@@ -4578,36 +4611,36 @@
       <c r="A42" s="3">
         <v>40</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="K42" t="str">
+      <c r="D42" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K42" s="7" t="str">
         <f>IF(D42&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;D$1&amp;", "&amp;$A42&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(1, 40, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="L42" t="str">
+      <c r="L42" s="7" t="str">
         <f>IF(E42&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;E$1&amp;", "&amp;$A42&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
-      <c r="M42" t="str">
+      <c r="M42" s="7" t="str">
         <f>IF(F42&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;F$1&amp;", "&amp;$A42&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
-      <c r="N42" t="str">
+      <c r="N42" s="7" t="str">
         <f>IF(G42&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;G$1&amp;", "&amp;$A42&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
-      <c r="O42" t="str">
+      <c r="O42" s="7" t="str">
         <f>IF(H42&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;H$1&amp;", "&amp;$A42&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
-      <c r="P42" t="str">
+      <c r="P42" s="7" t="str">
         <f>IF(I42&lt;&gt;"","INSERT INTO "&amp;'roles-repice'!$I$3&amp;"roles_permissions VALUES("&amp;I$1&amp;", "&amp;$A42&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
@@ -4616,39 +4649,39 @@
       <c r="A43" s="3">
         <v>41</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="K43" t="str">
+      <c r="D43" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K43" s="7" t="str">
         <f>IF(D43&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;D$1&amp;", "&amp;$A43&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(1, 41, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="L43" t="str">
+      <c r="L43" s="7" t="str">
         <f>IF(E43&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;E$1&amp;", "&amp;$A43&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(2, 41, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="M43" t="str">
+      <c r="M43" s="7" t="str">
         <f>IF(F43&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;F$1&amp;", "&amp;$A43&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
-      <c r="N43" t="str">
+      <c r="N43" s="7" t="str">
         <f>IF(G43&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;G$1&amp;", "&amp;$A43&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
-      <c r="O43" t="str">
+      <c r="O43" s="7" t="str">
         <f>IF(H43&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;H$1&amp;", "&amp;$A43&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
-      <c r="P43" t="str">
+      <c r="P43" s="7" t="str">
         <f>IF(I43&lt;&gt;"","INSERT INTO "&amp;'roles-repice'!$I$3&amp;"roles_permissions VALUES("&amp;I$1&amp;", "&amp;$A43&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
@@ -4657,39 +4690,39 @@
       <c r="A44" s="3">
         <v>42</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="K44" t="str">
+      <c r="D44" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K44" s="7" t="str">
         <f>IF(D44&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;D$1&amp;", "&amp;$A44&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(1, 42, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="L44" t="str">
+      <c r="L44" s="7" t="str">
         <f>IF(E44&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;E$1&amp;", "&amp;$A44&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(2, 42, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="M44" t="str">
+      <c r="M44" s="7" t="str">
         <f>IF(F44&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;F$1&amp;", "&amp;$A44&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
-      <c r="N44" t="str">
+      <c r="N44" s="7" t="str">
         <f>IF(G44&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;G$1&amp;", "&amp;$A44&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
-      <c r="O44" t="str">
+      <c r="O44" s="7" t="str">
         <f>IF(H44&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;H$1&amp;", "&amp;$A44&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
-      <c r="P44" t="str">
+      <c r="P44" s="7" t="str">
         <f>IF(I44&lt;&gt;"","INSERT INTO "&amp;'roles-repice'!$I$3&amp;"roles_permissions VALUES("&amp;I$1&amp;", "&amp;$A44&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
@@ -4698,48 +4731,48 @@
       <c r="A45" s="3">
         <v>43</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="K45" t="str">
+      <c r="D45" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K45" s="7" t="str">
         <f>IF(D45&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;D$1&amp;", "&amp;$A45&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(1, 43, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="L45" t="str">
+      <c r="L45" s="7" t="str">
         <f>IF(E45&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;E$1&amp;", "&amp;$A45&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(2, 43, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="M45" t="str">
+      <c r="M45" s="7" t="str">
         <f>IF(F45&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;F$1&amp;", "&amp;$A45&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(3, 43, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="N45" t="str">
+      <c r="N45" s="7" t="str">
         <f>IF(G45&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;G$1&amp;", "&amp;$A45&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(4, 43, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="O45" t="str">
+      <c r="O45" s="7" t="str">
         <f>IF(H45&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;H$1&amp;", "&amp;$A45&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(5, 43, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="P45" t="str">
+      <c r="P45" s="7" t="str">
         <f>IF(I45&lt;&gt;"","INSERT INTO "&amp;'roles-repice'!$I$3&amp;"roles_permissions VALUES("&amp;I$1&amp;", "&amp;$A45&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
@@ -4748,45 +4781,45 @@
       <c r="A46" s="3">
         <v>44</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="K46" t="str">
+      <c r="D46" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K46" s="7" t="str">
         <f>IF(D46&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;D$1&amp;", "&amp;$A46&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(1, 44, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="L46" t="str">
+      <c r="L46" s="7" t="str">
         <f>IF(E46&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;E$1&amp;", "&amp;$A46&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(2, 44, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="M46" t="str">
+      <c r="M46" s="7" t="str">
         <f>IF(F46&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;F$1&amp;", "&amp;$A46&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(3, 44, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="N46" t="str">
+      <c r="N46" s="7" t="str">
         <f>IF(G46&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;G$1&amp;", "&amp;$A46&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(4, 44, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="O46" t="str">
+      <c r="O46" s="7" t="str">
         <f>IF(H46&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;H$1&amp;", "&amp;$A46&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
-      <c r="P46" t="str">
+      <c r="P46" s="7" t="str">
         <f>IF(I46&lt;&gt;"","INSERT INTO "&amp;'roles-repice'!$I$3&amp;"roles_permissions VALUES("&amp;I$1&amp;", "&amp;$A46&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
@@ -4795,39 +4828,39 @@
       <c r="A47" s="3">
         <v>45</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="K47" t="str">
+      <c r="D47" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K47" s="7" t="str">
         <f>IF(D47&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;D$1&amp;", "&amp;$A47&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(1, 45, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="L47" t="str">
+      <c r="L47" s="7" t="str">
         <f>IF(E47&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;E$1&amp;", "&amp;$A47&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(2, 45, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="M47" t="str">
+      <c r="M47" s="7" t="str">
         <f>IF(F47&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;F$1&amp;", "&amp;$A47&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
-      <c r="N47" t="str">
+      <c r="N47" s="7" t="str">
         <f>IF(G47&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;G$1&amp;", "&amp;$A47&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
-      <c r="O47" t="str">
+      <c r="O47" s="7" t="str">
         <f>IF(H47&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;H$1&amp;", "&amp;$A47&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
-      <c r="P47" t="str">
+      <c r="P47" s="7" t="str">
         <f>IF(I47&lt;&gt;"","INSERT INTO "&amp;'roles-repice'!$I$3&amp;"roles_permissions VALUES("&amp;I$1&amp;", "&amp;$A47&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
@@ -4836,39 +4869,39 @@
       <c r="A48" s="3">
         <v>46</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="K48" t="str">
+      <c r="D48" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K48" s="7" t="str">
         <f>IF(D48&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;D$1&amp;", "&amp;$A48&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(1, 46, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="L48" t="str">
+      <c r="L48" s="7" t="str">
         <f>IF(E48&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;E$1&amp;", "&amp;$A48&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(2, 46, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="M48" t="str">
+      <c r="M48" s="7" t="str">
         <f>IF(F48&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;F$1&amp;", "&amp;$A48&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
-      <c r="N48" t="str">
+      <c r="N48" s="7" t="str">
         <f>IF(G48&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;G$1&amp;", "&amp;$A48&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
-      <c r="O48" t="str">
+      <c r="O48" s="7" t="str">
         <f>IF(H48&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;H$1&amp;", "&amp;$A48&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
-      <c r="P48" t="str">
+      <c r="P48" s="7" t="str">
         <f>IF(I48&lt;&gt;"","INSERT INTO "&amp;'roles-repice'!$I$3&amp;"roles_permissions VALUES("&amp;I$1&amp;", "&amp;$A48&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
@@ -4877,36 +4910,36 @@
       <c r="A49" s="3">
         <v>47</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="K49" t="str">
+      <c r="D49" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K49" s="7" t="str">
         <f>IF(D49&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;D$1&amp;", "&amp;$A49&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(1, 47, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="L49" t="str">
+      <c r="L49" s="7" t="str">
         <f>IF(E49&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;E$1&amp;", "&amp;$A49&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
-      <c r="M49" t="str">
+      <c r="M49" s="7" t="str">
         <f>IF(F49&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;F$1&amp;", "&amp;$A49&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
-      <c r="N49" t="str">
+      <c r="N49" s="7" t="str">
         <f>IF(G49&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;G$1&amp;", "&amp;$A49&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
-      <c r="O49" t="str">
+      <c r="O49" s="7" t="str">
         <f>IF(H49&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;H$1&amp;", "&amp;$A49&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
-      <c r="P49" t="str">
+      <c r="P49" s="7" t="str">
         <f>IF(I49&lt;&gt;"","INSERT INTO "&amp;'roles-repice'!$I$3&amp;"roles_permissions VALUES("&amp;I$1&amp;", "&amp;$A49&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
@@ -4915,39 +4948,39 @@
       <c r="A50" s="3">
         <v>48</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="D50" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="K50" t="str">
+      <c r="D50" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K50" s="7" t="str">
         <f>IF(D50&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;D$1&amp;", "&amp;$A50&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(1, 48, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="L50" t="str">
+      <c r="L50" s="7" t="str">
         <f>IF(E50&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;E$1&amp;", "&amp;$A50&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(2, 48, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="M50" t="str">
+      <c r="M50" s="7" t="str">
         <f>IF(F50&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;F$1&amp;", "&amp;$A50&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
-      <c r="N50" t="str">
+      <c r="N50" s="7" t="str">
         <f>IF(G50&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;G$1&amp;", "&amp;$A50&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
-      <c r="O50" t="str">
+      <c r="O50" s="7" t="str">
         <f>IF(H50&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;H$1&amp;", "&amp;$A50&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
-      <c r="P50" t="str">
+      <c r="P50" s="7" t="str">
         <f>IF(I50&lt;&gt;"","INSERT INTO "&amp;'roles-repice'!$I$3&amp;"roles_permissions VALUES("&amp;I$1&amp;", "&amp;$A50&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
@@ -4956,39 +4989,39 @@
       <c r="A51" s="3">
         <v>49</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="D51" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="K51" t="str">
+      <c r="D51" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K51" s="7" t="str">
         <f>IF(D51&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;D$1&amp;", "&amp;$A51&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(1, 49, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="L51" t="str">
+      <c r="L51" s="7" t="str">
         <f>IF(E51&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;E$1&amp;", "&amp;$A51&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(2, 49, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="M51" t="str">
+      <c r="M51" s="7" t="str">
         <f>IF(F51&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;F$1&amp;", "&amp;$A51&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
-      <c r="N51" t="str">
+      <c r="N51" s="7" t="str">
         <f>IF(G51&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;G$1&amp;", "&amp;$A51&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
-      <c r="O51" t="str">
+      <c r="O51" s="7" t="str">
         <f>IF(H51&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;H$1&amp;", "&amp;$A51&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
-      <c r="P51" t="str">
+      <c r="P51" s="7" t="str">
         <f>IF(I51&lt;&gt;"","INSERT INTO "&amp;'roles-repice'!$I$3&amp;"roles_permissions VALUES("&amp;I$1&amp;", "&amp;$A51&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
@@ -4997,44 +5030,44 @@
       <c r="A52" s="3">
         <v>50</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="K52" t="str">
+      <c r="D52" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K52" s="7" t="str">
         <f>IF(D52&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;D$1&amp;", "&amp;$A52&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(1, 50, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="L52" t="str">
+      <c r="L52" s="7" t="str">
         <f>IF(E52&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;E$1&amp;", "&amp;$A52&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(2, 50, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="M52" t="str">
+      <c r="M52" s="7" t="str">
         <f>IF(F52&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;F$1&amp;", "&amp;$A52&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(3, 50, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="N52" t="str">
+      <c r="N52" s="7" t="str">
         <f>IF(G52&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;G$1&amp;", "&amp;$A52&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(4, 50, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="O52" t="str">
+      <c r="O52" s="7" t="str">
         <f>IF(H52&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;H$1&amp;", "&amp;$A52&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(5, 50, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
@@ -5043,41 +5076,41 @@
       <c r="A53" s="3">
         <v>51</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="D53" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="K53" t="str">
+      <c r="D53" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K53" s="7" t="str">
         <f>IF(D53&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;D$1&amp;", "&amp;$A53&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(1, 51, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="L53" t="str">
+      <c r="L53" s="7" t="str">
         <f>IF(E53&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;E$1&amp;", "&amp;$A53&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(2, 51, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="M53" t="str">
+      <c r="M53" s="7" t="str">
         <f>IF(F53&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;F$1&amp;", "&amp;$A53&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(3, 51, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="N53" t="str">
+      <c r="N53" s="7" t="str">
         <f>IF(G53&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;G$1&amp;", "&amp;$A53&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(4, 51, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="O53" t="str">
+      <c r="O53" s="7" t="str">
         <f>IF(H53&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;H$1&amp;", "&amp;$A53&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
@@ -5086,35 +5119,35 @@
       <c r="A54" s="3">
         <v>52</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="K54" t="str">
+      <c r="D54" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K54" s="7" t="str">
         <f>IF(D54&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;D$1&amp;", "&amp;$A54&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(1, 52, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="L54" t="str">
+      <c r="L54" s="7" t="str">
         <f>IF(E54&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;E$1&amp;", "&amp;$A54&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(2, 52, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="M54" t="str">
+      <c r="M54" s="7" t="str">
         <f>IF(F54&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;F$1&amp;", "&amp;$A54&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
-      <c r="N54" t="str">
+      <c r="N54" s="7" t="str">
         <f>IF(G54&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;G$1&amp;", "&amp;$A54&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
-      <c r="O54" t="str">
+      <c r="O54" s="7" t="str">
         <f>IF(H54&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;H$1&amp;", "&amp;$A54&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
@@ -5123,32 +5156,32 @@
       <c r="A55" s="3">
         <v>53</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B55" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="D55" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="K55" t="str">
+      <c r="D55" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K55" s="7" t="str">
         <f>IF(D55&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;D$1&amp;", "&amp;$A55&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(1, 53, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="L55" t="str">
+      <c r="L55" s="7" t="str">
         <f>IF(E55&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;E$1&amp;", "&amp;$A55&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
-      <c r="M55" t="str">
+      <c r="M55" s="7" t="str">
         <f>IF(F55&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;F$1&amp;", "&amp;$A55&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
-      <c r="N55" t="str">
+      <c r="N55" s="7" t="str">
         <f>IF(G55&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;G$1&amp;", "&amp;$A55&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
-      <c r="O55" t="str">
+      <c r="O55" s="7" t="str">
         <f>IF(H55&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;H$1&amp;", "&amp;$A55&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
@@ -5157,32 +5190,32 @@
       <c r="A56" s="3">
         <v>54</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="D56" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="K56" t="str">
+      <c r="D56" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K56" s="7" t="str">
         <f>IF(D56&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;D$1&amp;", "&amp;$A56&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(1, 54, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="L56" t="str">
+      <c r="L56" s="7" t="str">
         <f>IF(E56&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;E$1&amp;", "&amp;$A56&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
-      <c r="M56" t="str">
+      <c r="M56" s="7" t="str">
         <f>IF(F56&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;F$1&amp;", "&amp;$A56&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
-      <c r="N56" t="str">
+      <c r="N56" s="7" t="str">
         <f>IF(G56&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;G$1&amp;", "&amp;$A56&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
-      <c r="O56" t="str">
+      <c r="O56" s="7" t="str">
         <f>IF(H56&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;H$1&amp;", "&amp;$A56&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
@@ -5191,35 +5224,35 @@
       <c r="A57" s="3">
         <v>55</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="K57" t="str">
+      <c r="D57" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K57" s="7" t="str">
         <f>IF(D57&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;D$1&amp;", "&amp;$A57&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(1, 55, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="L57" t="str">
+      <c r="L57" s="7" t="str">
         <f>IF(E57&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;E$1&amp;", "&amp;$A57&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(2, 55, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="M57" t="str">
+      <c r="M57" s="7" t="str">
         <f>IF(F57&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;F$1&amp;", "&amp;$A57&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
-      <c r="N57" t="str">
+      <c r="N57" s="7" t="str">
         <f>IF(G57&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;G$1&amp;", "&amp;$A57&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
-      <c r="O57" t="str">
+      <c r="O57" s="7" t="str">
         <f>IF(H57&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;H$1&amp;", "&amp;$A57&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
@@ -5228,41 +5261,43 @@
       <c r="A58" s="3">
         <v>56</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="K58" t="str">
+      <c r="D58" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K58" s="7" t="str">
         <f>IF(D58&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;D$1&amp;", "&amp;$A58&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(1, 56, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="L58" t="str">
+      <c r="L58" s="7" t="str">
         <f>IF(E58&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;E$1&amp;", "&amp;$A58&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v>INSERT INTO ktgiang_roles_permissions VALUES(2, 56, '2023-06-16 23:13:06', '2023-06-16 23:13:06');</v>
       </c>
-      <c r="M58" t="str">
+      <c r="M58" s="7" t="str">
         <f>IF(F58&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;F$1&amp;", "&amp;$A58&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
-      <c r="N58" t="str">
+      <c r="N58" s="7" t="str">
         <f>IF(G58&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;G$1&amp;", "&amp;$A58&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
-      <c r="O58" t="str">
+      <c r="O58" s="7" t="str">
         <f>IF(H58&lt;&gt;"","INSERT INTO "&amp;config!$C$3&amp;"roles_permissions VALUES("&amp;H$1&amp;", "&amp;$A58&amp;", '2023-06-16 23:13:06', '2023-06-16 23:13:06');","")</f>
         <v/>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <printOptions gridLines="1"/>
+  <pageMargins left="0.25" right="0.25" top="0.314583333333333" bottom="0.314583333333333" header="0.298611111111111" footer="0.298611111111111"/>
+  <pageSetup paperSize="9" scale="90" fitToWidth="0" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -6447,7 +6482,7 @@
   <sheetPr/>
   <dimension ref="A1:D155"/>
   <sheetViews>
-    <sheetView topLeftCell="A62" workbookViewId="0">
+    <sheetView topLeftCell="A41" workbookViewId="0">
       <selection activeCell="F108" sqref="F108"/>
     </sheetView>
   </sheetViews>
